--- a/GI03FLMA/Omaha_Cal_Info_GI03FLMA_00001.xlsx
+++ b/GI03FLMA/Omaha_Cal_Info_GI03FLMA_00001.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="12720" windowHeight="12408" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -17,7 +22,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -165,9 +170,6 @@
     <t>CC_depolarization_ratio</t>
   </si>
   <si>
-    <t>GI03FLMA-FM001</t>
-  </si>
-  <si>
     <t>GI03FLMA-00001</t>
   </si>
   <si>
@@ -268,6 +270,9 @@
   </si>
   <si>
     <t>The serial number used here is bogus, pending identification of the real serial number.</t>
+  </si>
+  <si>
+    <t>GI03FLMA</t>
   </si>
 </sst>
 </file>
@@ -444,7 +449,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,6 +477,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="55"/>
         <bgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -672,7 +683,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -756,6 +767,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -899,6 +913,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -963,7 +980,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -998,7 +1015,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1209,29 +1226,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="4"/>
+    <col min="7" max="7" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1266,12 +1283,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>47</v>
+    <row r="2" spans="1:13" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -1284,16 +1301,16 @@
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="I2" s="3">
         <v>2700</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="18">
@@ -1305,7 +1322,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D3" s="25"/>
       <c r="E3" s="26"/>
       <c r="F3" s="25"/>
@@ -1320,23 +1337,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="67.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="2"/>
+    <col min="6" max="6" width="16.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="67.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1359,7 +1376,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -1367,12 +1384,12 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="22">
         <v>1</v>
@@ -1390,12 +1407,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="22">
         <v>1</v>
@@ -1413,12 +1430,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="22">
         <v>1</v>
@@ -1433,12 +1450,12 @@
         <v>1.17E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="22">
         <v>1</v>
@@ -1453,12 +1470,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="22">
         <v>1</v>
@@ -1473,12 +1490,12 @@
         <v>9.0300000000000005E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="22">
         <v>1</v>
@@ -1493,12 +1510,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="22">
         <v>1</v>
@@ -1516,12 +1533,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="22">
         <v>1</v>
@@ -1539,12 +1556,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="22">
         <v>1</v>
@@ -1562,12 +1579,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="22">
         <v>1</v>
@@ -1585,7 +1602,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
@@ -1593,18 +1610,18 @@
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="22">
         <v>1</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>18</v>
@@ -1616,18 +1633,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="22">
         <v>1</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>19</v>
@@ -1636,18 +1653,18 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="22">
         <v>1</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>20</v>
@@ -1656,18 +1673,18 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="22">
         <v>1</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>21</v>
@@ -1676,18 +1693,18 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="22">
         <v>1</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>22</v>
@@ -1696,18 +1713,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="22">
         <v>1</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>23</v>
@@ -1716,18 +1733,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="22">
         <v>1</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>39</v>
@@ -1739,7 +1756,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
@@ -1747,12 +1764,12 @@
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="22">
         <v>1</v>
@@ -1770,12 +1787,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="22">
         <v>1</v>
@@ -1790,15 +1807,15 @@
         <v>-39.842500000000001</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="22">
         <v>1</v>
@@ -1810,10 +1827,10 @@
         <v>15</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="22"/>
@@ -1821,12 +1838,12 @@
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="22">
         <v>1</v>
@@ -1844,12 +1861,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="22">
         <v>1</v>
@@ -1864,12 +1881,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="22">
         <v>1</v>
@@ -1884,12 +1901,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="22">
         <v>1</v>
@@ -1904,12 +1921,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="22">
         <v>1</v>
@@ -1924,12 +1941,12 @@
         <v>498000</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="22">
         <v>1</v>
@@ -1944,12 +1961,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="22">
         <v>1</v>
@@ -1964,12 +1981,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="22">
         <v>1</v>
@@ -1984,12 +2001,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="22">
         <v>1</v>
@@ -2004,7 +2021,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
@@ -2012,12 +2029,12 @@
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="22">
         <v>1</v>
@@ -2035,12 +2052,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="22">
         <v>1</v>
@@ -2055,12 +2072,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="22">
         <v>1</v>
@@ -2075,12 +2092,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="22">
         <v>1</v>
@@ -2095,7 +2112,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="22"/>
@@ -2103,12 +2120,12 @@
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="22">
         <v>1</v>
@@ -2126,12 +2143,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="22">
         <v>1</v>
@@ -2146,12 +2163,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="22">
         <v>1</v>
@@ -2166,12 +2183,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="22">
         <v>1</v>
@@ -2186,7 +2203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="22"/>
@@ -2194,12 +2211,12 @@
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" s="22">
         <v>1</v>
@@ -2217,12 +2234,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" s="22">
         <v>1</v>
@@ -2237,12 +2254,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="22">
         <v>1</v>
@@ -2257,12 +2274,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="22">
         <v>1</v>
@@ -2277,7 +2294,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="22"/>
@@ -2285,12 +2302,12 @@
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" s="22">
         <v>1</v>
@@ -2308,12 +2325,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" s="22">
         <v>1</v>
@@ -2328,12 +2345,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C53" s="22">
         <v>1</v>
@@ -2348,12 +2365,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54" s="22">
         <v>1</v>
@@ -2368,7 +2385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="22"/>
@@ -2376,12 +2393,12 @@
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="22">
         <v>1</v>
@@ -2399,12 +2416,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C57" s="22">
         <v>1</v>
@@ -2419,12 +2436,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C58" s="22">
         <v>1</v>
@@ -2439,12 +2456,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C59" s="22">
         <v>1</v>
@@ -2459,7 +2476,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="22"/>
@@ -2467,12 +2484,12 @@
       <c r="E60" s="21"/>
       <c r="F60" s="21"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C61" s="22">
         <v>1</v>
@@ -2490,12 +2507,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C62" s="22">
         <v>1</v>
@@ -2510,12 +2527,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C63" s="22">
         <v>1</v>
@@ -2530,12 +2547,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C64" s="22">
         <v>1</v>
@@ -2550,7 +2567,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="22"/>
@@ -2558,12 +2575,12 @@
       <c r="E65" s="21"/>
       <c r="F65" s="21"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C66" s="22">
         <v>1</v>
@@ -2581,12 +2598,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C67" s="22">
         <v>1</v>
@@ -2601,12 +2618,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C68" s="22">
         <v>1</v>
@@ -2621,12 +2638,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C69" s="22">
         <v>1</v>
@@ -2641,7 +2658,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="22"/>
@@ -2649,12 +2666,12 @@
       <c r="E70" s="21"/>
       <c r="F70" s="21"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C71" s="22">
         <v>1</v>
@@ -2672,12 +2689,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C72" s="22">
         <v>1</v>
@@ -2692,12 +2709,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C73" s="22">
         <v>1</v>
@@ -2712,12 +2729,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C74" s="22">
         <v>1</v>
@@ -2732,7 +2749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="22"/>
@@ -2740,12 +2757,12 @@
       <c r="E75" s="21"/>
       <c r="F75" s="21"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C76" s="22">
         <v>1</v>
@@ -2763,12 +2780,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C77" s="22">
         <v>1</v>
@@ -2783,12 +2800,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C78" s="22">
         <v>1</v>
@@ -2803,12 +2820,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C79" s="22">
         <v>1</v>
@@ -2823,7 +2840,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="22"/>
@@ -2831,12 +2848,12 @@
       <c r="E80" s="21"/>
       <c r="F80" s="21"/>
     </row>
-    <row r="81" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C81" s="23">
         <v>1</v>
@@ -2854,12 +2871,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C82" s="22">
         <v>1</v>
@@ -2874,12 +2891,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C83" s="22">
         <v>1</v>
@@ -2894,12 +2911,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C84" s="22">
         <v>1</v>
@@ -2914,7 +2931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="22"/>
@@ -2922,12 +2939,12 @@
       <c r="E85" s="21"/>
       <c r="F85" s="21"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C86" s="22">
         <v>1</v>
@@ -2945,12 +2962,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C87" s="22">
         <v>1</v>
@@ -2965,12 +2982,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C88" s="22">
         <v>1</v>
@@ -2985,12 +3002,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C89" s="22">
         <v>1</v>
@@ -3005,7 +3022,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="21"/>
       <c r="B90" s="21"/>
       <c r="C90" s="22"/>
@@ -3013,12 +3030,12 @@
       <c r="E90" s="21"/>
       <c r="F90" s="21"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C91" s="22">
         <v>1</v>
@@ -3036,12 +3053,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C92" s="22">
         <v>1</v>
@@ -3056,12 +3073,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C93" s="22">
         <v>1</v>
@@ -3076,12 +3093,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C94" s="22">
         <v>1</v>
@@ -3096,7 +3113,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="21"/>
       <c r="B95" s="21"/>
       <c r="C95" s="22"/>
@@ -3104,12 +3121,12 @@
       <c r="E95" s="21"/>
       <c r="F95" s="21"/>
     </row>
-    <row r="96" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C96" s="23">
         <v>1</v>
@@ -3127,12 +3144,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C97" s="22">
         <v>1</v>
@@ -3147,12 +3164,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C98" s="22">
         <v>1</v>
@@ -3167,12 +3184,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C99" s="22">
         <v>1</v>
@@ -3187,7 +3204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="21"/>
       <c r="B100" s="21"/>
       <c r="C100" s="22"/>
@@ -3195,12 +3212,12 @@
       <c r="E100" s="21"/>
       <c r="F100" s="21"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C101" s="22">
         <v>1</v>
@@ -3218,12 +3235,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C102" s="22">
         <v>1</v>
@@ -3238,12 +3255,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C103" s="22">
         <v>1</v>
@@ -3258,12 +3275,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C104" s="22">
         <v>1</v>
@@ -3278,7 +3295,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="21"/>
       <c r="B105" s="21"/>
       <c r="C105" s="22"/>
@@ -3286,12 +3303,12 @@
       <c r="E105" s="21"/>
       <c r="F105" s="21"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C106" s="22">
         <v>1</v>
@@ -3309,12 +3326,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C107" s="22">
         <v>1</v>
@@ -3329,12 +3346,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C108" s="22">
         <v>1</v>
@@ -3349,12 +3366,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C109" s="22">
         <v>1</v>
@@ -3369,7 +3386,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="21"/>
       <c r="B110" s="21"/>
       <c r="C110" s="22"/>
@@ -3377,12 +3394,12 @@
       <c r="E110" s="21"/>
       <c r="F110" s="21"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C111" s="22">
         <v>1</v>
@@ -3400,12 +3417,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C112" s="22">
         <v>1</v>
@@ -3420,12 +3437,12 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C113" s="22">
         <v>1</v>
@@ -3440,12 +3457,12 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C114" s="22">
         <v>1</v>
@@ -3460,12 +3477,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C116" s="2">
         <v>1</v>
@@ -3483,12 +3500,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C117" s="2">
         <v>1</v>
@@ -3503,7 +3520,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="21"/>
       <c r="B118" s="21"/>
       <c r="C118" s="22"/>
@@ -3511,12 +3528,12 @@
       <c r="E118" s="21"/>
       <c r="F118" s="21"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C119" s="2">
         <v>1</v>
@@ -3534,12 +3551,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C120" s="2">
         <v>1</v>
@@ -3554,7 +3571,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="21"/>
       <c r="B121" s="21"/>
       <c r="C121" s="22"/>
@@ -3562,12 +3579,12 @@
       <c r="E121" s="21"/>
       <c r="F121" s="21"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C122" s="2">
         <v>1</v>
@@ -3585,12 +3602,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C123" s="2">
         <v>1</v>
@@ -3605,7 +3622,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="21"/>
       <c r="B124" s="21"/>
       <c r="C124" s="22"/>
@@ -3613,12 +3630,12 @@
       <c r="E124" s="21"/>
       <c r="F124" s="21"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C125" s="2">
         <v>1</v>
@@ -3636,12 +3653,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C126" s="2">
         <v>1</v>
@@ -3656,7 +3673,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="21"/>
       <c r="B127" s="21"/>
       <c r="C127" s="22"/>
@@ -3664,26 +3681,26 @@
       <c r="E127" s="21"/>
       <c r="F127" s="21"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B128" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C128" s="22">
         <v>1</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E128" s="21"/>
       <c r="F128" s="21"/>
       <c r="G128" s="27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="21"/>
       <c r="B129" s="21"/>
       <c r="C129" s="22"/>
@@ -3691,7 +3708,7 @@
       <c r="E129" s="21"/>
       <c r="F129" s="21"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="21"/>
       <c r="B130" s="21"/>
       <c r="C130" s="21"/>
@@ -3699,7 +3716,7 @@
       <c r="E130" s="21"/>
       <c r="F130" s="21"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="21"/>
       <c r="B131" s="21"/>
       <c r="C131" s="21"/>
@@ -3707,7 +3724,7 @@
       <c r="E131" s="21"/>
       <c r="F131" s="21"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="21"/>
       <c r="B132" s="21"/>
       <c r="C132" s="21"/>
@@ -3715,7 +3732,7 @@
       <c r="E132" s="21"/>
       <c r="F132" s="21"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="21"/>
       <c r="B133" s="21"/>
       <c r="C133" s="21"/>
@@ -3723,7 +3740,7 @@
       <c r="E133" s="21"/>
       <c r="F133" s="21"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="21"/>
       <c r="B134" s="21"/>
       <c r="C134" s="21"/>

--- a/GI03FLMA/Omaha_Cal_Info_GI03FLMA_00001.xlsx
+++ b/GI03FLMA/Omaha_Cal_Info_GI03FLMA_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="12720" windowHeight="12408" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -22,7 +17,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -980,7 +975,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1015,7 +1010,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1230,22 +1225,22 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="4"/>
+    <col min="7" max="7" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -1283,7 +1278,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>81</v>
       </c>
@@ -1322,7 +1317,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="15" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D3" s="25"/>
       <c r="E3" s="26"/>
       <c r="F3" s="25"/>
@@ -1337,23 +1332,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G128" sqref="G128"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="67.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="16.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="67.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="11" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +1371,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -1384,7 +1379,7 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>52</v>
       </c>
@@ -1407,7 +1402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>52</v>
       </c>
@@ -1430,7 +1425,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>52</v>
       </c>
@@ -1450,7 +1445,7 @@
         <v>1.17E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>52</v>
       </c>
@@ -1470,7 +1465,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>52</v>
       </c>
@@ -1490,7 +1485,7 @@
         <v>9.0300000000000005E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>52</v>
       </c>
@@ -1510,7 +1505,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>52</v>
       </c>
@@ -1527,13 +1522,13 @@
         <v>43</v>
       </c>
       <c r="F9" s="21">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>52</v>
       </c>
@@ -1556,7 +1551,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>52</v>
       </c>
@@ -1573,13 +1568,13 @@
         <v>45</v>
       </c>
       <c r="F11" s="21">
-        <v>1.08</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>52</v>
       </c>
@@ -1602,7 +1597,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
@@ -1610,7 +1605,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>53</v>
       </c>
@@ -1633,7 +1628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>53</v>
       </c>
@@ -1653,7 +1648,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>53</v>
       </c>
@@ -1673,7 +1668,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>53</v>
       </c>
@@ -1693,7 +1688,7 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>53</v>
       </c>
@@ -1713,7 +1708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>53</v>
       </c>
@@ -1733,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>53</v>
       </c>
@@ -1756,7 +1751,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
@@ -1764,7 +1759,7 @@
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>54</v>
       </c>
@@ -1787,7 +1782,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>54</v>
       </c>
@@ -1810,7 +1805,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>54</v>
       </c>
@@ -1830,7 +1825,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="22"/>
@@ -1838,7 +1833,7 @@
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
         <v>56</v>
       </c>
@@ -1861,7 +1856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
         <v>56</v>
       </c>
@@ -1881,7 +1876,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>56</v>
       </c>
@@ -1901,7 +1896,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
         <v>56</v>
       </c>
@@ -1921,7 +1916,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
         <v>56</v>
       </c>
@@ -1941,7 +1936,7 @@
         <v>498000</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
         <v>56</v>
       </c>
@@ -1961,7 +1956,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
         <v>56</v>
       </c>
@@ -1981,7 +1976,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
         <v>56</v>
       </c>
@@ -2001,7 +1996,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
         <v>56</v>
       </c>
@@ -2021,7 +2016,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
@@ -2029,7 +2024,7 @@
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
         <v>57</v>
       </c>
@@ -2046,13 +2041,13 @@
         <v>5</v>
       </c>
       <c r="F36" s="21">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
         <v>57</v>
       </c>
@@ -2072,7 +2067,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>57</v>
       </c>
@@ -2092,7 +2087,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>57</v>
       </c>
@@ -2112,7 +2107,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="22"/>
@@ -2120,7 +2115,7 @@
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>58</v>
       </c>
@@ -2137,13 +2132,13 @@
         <v>5</v>
       </c>
       <c r="F41" s="21">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
         <v>58</v>
       </c>
@@ -2163,7 +2158,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>58</v>
       </c>
@@ -2183,7 +2178,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
         <v>58</v>
       </c>
@@ -2203,7 +2198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="22"/>
@@ -2211,7 +2206,7 @@
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>59</v>
       </c>
@@ -2228,13 +2223,13 @@
         <v>5</v>
       </c>
       <c r="F46" s="21">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
         <v>59</v>
       </c>
@@ -2254,7 +2249,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
         <v>59</v>
       </c>
@@ -2274,7 +2269,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
         <v>59</v>
       </c>
@@ -2294,7 +2289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="22"/>
@@ -2302,7 +2297,7 @@
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>60</v>
       </c>
@@ -2319,13 +2314,13 @@
         <v>5</v>
       </c>
       <c r="F51" s="21">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
         <v>60</v>
       </c>
@@ -2345,7 +2340,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
         <v>60</v>
       </c>
@@ -2365,7 +2360,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
         <v>60</v>
       </c>
@@ -2385,7 +2380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="22"/>
@@ -2393,7 +2388,7 @@
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>61</v>
       </c>
@@ -2410,13 +2405,13 @@
         <v>5</v>
       </c>
       <c r="F56" s="21">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
         <v>61</v>
       </c>
@@ -2436,7 +2431,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
         <v>61</v>
       </c>
@@ -2456,7 +2451,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
         <v>61</v>
       </c>
@@ -2476,7 +2471,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="22"/>
@@ -2484,7 +2479,7 @@
       <c r="E60" s="21"/>
       <c r="F60" s="21"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>62</v>
       </c>
@@ -2501,13 +2496,13 @@
         <v>5</v>
       </c>
       <c r="F61" s="21">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
         <v>62</v>
       </c>
@@ -2527,7 +2522,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
         <v>62</v>
       </c>
@@ -2547,7 +2542,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
         <v>62</v>
       </c>
@@ -2567,7 +2562,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="22"/>
@@ -2575,7 +2570,7 @@
       <c r="E65" s="21"/>
       <c r="F65" s="21"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>63</v>
       </c>
@@ -2592,13 +2587,13 @@
         <v>5</v>
       </c>
       <c r="F66" s="21">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
         <v>63</v>
       </c>
@@ -2618,7 +2613,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
         <v>63</v>
       </c>
@@ -2638,7 +2633,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
         <v>63</v>
       </c>
@@ -2658,7 +2653,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="22"/>
@@ -2666,7 +2661,7 @@
       <c r="E70" s="21"/>
       <c r="F70" s="21"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
         <v>64</v>
       </c>
@@ -2683,13 +2678,13 @@
         <v>5</v>
       </c>
       <c r="F71" s="21">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
         <v>64</v>
       </c>
@@ -2709,7 +2704,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
         <v>64</v>
       </c>
@@ -2729,7 +2724,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
         <v>64</v>
       </c>
@@ -2749,7 +2744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="22"/>
@@ -2757,7 +2752,7 @@
       <c r="E75" s="21"/>
       <c r="F75" s="21"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>65</v>
       </c>
@@ -2774,13 +2769,13 @@
         <v>5</v>
       </c>
       <c r="F76" s="21">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
         <v>65</v>
       </c>
@@ -2800,7 +2795,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
         <v>65</v>
       </c>
@@ -2820,7 +2815,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
         <v>65</v>
       </c>
@@ -2840,7 +2835,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="22"/>
@@ -2848,7 +2843,7 @@
       <c r="E80" s="21"/>
       <c r="F80" s="21"/>
     </row>
-    <row r="81" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="23" t="s">
         <v>66</v>
       </c>
@@ -2865,13 +2860,13 @@
         <v>5</v>
       </c>
       <c r="F81" s="24">
-        <v>3500</v>
+        <v>5076</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
         <v>66</v>
       </c>
@@ -2891,7 +2886,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="s">
         <v>66</v>
       </c>
@@ -2911,7 +2906,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
         <v>66</v>
       </c>
@@ -2931,7 +2926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="22"/>
@@ -2939,7 +2934,7 @@
       <c r="E85" s="21"/>
       <c r="F85" s="21"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
         <v>67</v>
       </c>
@@ -2955,14 +2950,14 @@
       <c r="E86" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F86" s="21">
-        <v>3500</v>
+      <c r="F86" s="24">
+        <v>5076</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
         <v>67</v>
       </c>
@@ -2982,7 +2977,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
         <v>67</v>
       </c>
@@ -3002,7 +2997,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
         <v>67</v>
       </c>
@@ -3022,7 +3017,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="21"/>
       <c r="B90" s="21"/>
       <c r="C90" s="22"/>
@@ -3030,7 +3025,7 @@
       <c r="E90" s="21"/>
       <c r="F90" s="21"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
         <v>68</v>
       </c>
@@ -3046,14 +3041,14 @@
       <c r="E91" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="21">
-        <v>3500</v>
+      <c r="F91" s="24">
+        <v>5076</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
         <v>68</v>
       </c>
@@ -3073,7 +3068,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
         <v>68</v>
       </c>
@@ -3093,7 +3088,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
         <v>68</v>
       </c>
@@ -3113,7 +3108,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="21"/>
       <c r="B95" s="21"/>
       <c r="C95" s="22"/>
@@ -3121,7 +3116,7 @@
       <c r="E95" s="21"/>
       <c r="F95" s="21"/>
     </row>
-    <row r="96" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="23" t="s">
         <v>69</v>
       </c>
@@ -3138,13 +3133,13 @@
         <v>5</v>
       </c>
       <c r="F96" s="24">
-        <v>3500</v>
+        <v>5076</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
         <v>69</v>
       </c>
@@ -3164,7 +3159,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
         <v>69</v>
       </c>
@@ -3184,7 +3179,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
         <v>69</v>
       </c>
@@ -3204,7 +3199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="21"/>
       <c r="B100" s="21"/>
       <c r="C100" s="22"/>
@@ -3212,7 +3207,7 @@
       <c r="E100" s="21"/>
       <c r="F100" s="21"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="22" t="s">
         <v>70</v>
       </c>
@@ -3228,14 +3223,14 @@
       <c r="E101" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F101" s="21">
-        <v>3500</v>
+      <c r="F101" s="24">
+        <v>5076</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
         <v>70</v>
       </c>
@@ -3255,7 +3250,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="s">
         <v>70</v>
       </c>
@@ -3275,7 +3270,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
         <v>70</v>
       </c>
@@ -3295,7 +3290,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="21"/>
       <c r="B105" s="21"/>
       <c r="C105" s="22"/>
@@ -3303,7 +3298,7 @@
       <c r="E105" s="21"/>
       <c r="F105" s="21"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
         <v>71</v>
       </c>
@@ -3319,14 +3314,14 @@
       <c r="E106" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F106" s="21">
-        <v>3500</v>
+      <c r="F106" s="24">
+        <v>5076</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="s">
         <v>71</v>
       </c>
@@ -3346,7 +3341,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="s">
         <v>71</v>
       </c>
@@ -3366,7 +3361,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="21" t="s">
         <v>71</v>
       </c>
@@ -3386,7 +3381,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="21"/>
       <c r="B110" s="21"/>
       <c r="C110" s="22"/>
@@ -3394,7 +3389,7 @@
       <c r="E110" s="21"/>
       <c r="F110" s="21"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
         <v>72</v>
       </c>
@@ -3410,14 +3405,14 @@
       <c r="E111" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F111" s="21">
-        <v>3500</v>
+      <c r="F111" s="24">
+        <v>5076</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="s">
         <v>72</v>
       </c>
@@ -3437,7 +3432,7 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="21" t="s">
         <v>72</v>
       </c>
@@ -3457,7 +3452,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="s">
         <v>72</v>
       </c>
@@ -3477,7 +3472,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="22" t="s">
         <v>48</v>
       </c>
@@ -3500,7 +3495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>48</v>
       </c>
@@ -3520,7 +3515,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="21"/>
       <c r="B118" s="21"/>
       <c r="C118" s="22"/>
@@ -3528,7 +3523,7 @@
       <c r="E118" s="21"/>
       <c r="F118" s="21"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="22" t="s">
         <v>49</v>
       </c>
@@ -3551,7 +3546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>49</v>
       </c>
@@ -3571,7 +3566,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="21"/>
       <c r="B121" s="21"/>
       <c r="C121" s="22"/>
@@ -3579,7 +3574,7 @@
       <c r="E121" s="21"/>
       <c r="F121" s="21"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="22" t="s">
         <v>50</v>
       </c>
@@ -3602,7 +3597,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>50</v>
       </c>
@@ -3622,7 +3617,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="21"/>
       <c r="B124" s="21"/>
       <c r="C124" s="22"/>
@@ -3630,7 +3625,7 @@
       <c r="E124" s="21"/>
       <c r="F124" s="21"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="22" t="s">
         <v>51</v>
       </c>
@@ -3653,7 +3648,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>51</v>
       </c>
@@ -3673,7 +3668,7 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="21"/>
       <c r="B127" s="21"/>
       <c r="C127" s="22"/>
@@ -3681,7 +3676,7 @@
       <c r="E127" s="21"/>
       <c r="F127" s="21"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
         <v>73</v>
       </c>
@@ -3700,7 +3695,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="21"/>
       <c r="B129" s="21"/>
       <c r="C129" s="22"/>
@@ -3708,7 +3703,7 @@
       <c r="E129" s="21"/>
       <c r="F129" s="21"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="21"/>
       <c r="B130" s="21"/>
       <c r="C130" s="21"/>
@@ -3716,7 +3711,7 @@
       <c r="E130" s="21"/>
       <c r="F130" s="21"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="21"/>
       <c r="B131" s="21"/>
       <c r="C131" s="21"/>
@@ -3724,7 +3719,7 @@
       <c r="E131" s="21"/>
       <c r="F131" s="21"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="21"/>
       <c r="B132" s="21"/>
       <c r="C132" s="21"/>
@@ -3732,7 +3727,7 @@
       <c r="E132" s="21"/>
       <c r="F132" s="21"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="21"/>
       <c r="B133" s="21"/>
       <c r="C133" s="21"/>
@@ -3740,7 +3735,7 @@
       <c r="E133" s="21"/>
       <c r="F133" s="21"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="21"/>
       <c r="B134" s="21"/>
       <c r="C134" s="21"/>

--- a/GI03FLMA/Omaha_Cal_Info_GI03FLMA_00001.xlsx
+++ b/GI03FLMA/Omaha_Cal_Info_GI03FLMA_00001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="78">
   <si>
     <t>Ref Des</t>
   </si>
@@ -168,81 +168,12 @@
     <t>GI03FLMA-00001</t>
   </si>
   <si>
-    <t>GI03FLMA-RIS02-19-VELPTB000</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS02-20-VELPTB000</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS02-21-VELPTB000</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS02-22-VELPTB000</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS01-01-FLORTD000</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS01-02-PHSENE000</t>
-  </si>
-  <si>
     <t>GI03FLMA-RIS01-03-DOSTAD000</t>
   </si>
   <si>
     <t>Requires TEMPWAT, PRESWAT, and PRACSAL from GI03FLMA-RIS02-03-CTDMOG000</t>
   </si>
   <si>
-    <t>GI03FLMA-RIS02-01-ADCPSL000</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS02-03-CTDMOG000</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS02-04-CTDMOG000</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS02-05-CTDMOG000</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS02-06-CTDMOG000</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS02-07-CTDMOG000</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS02-08-CTDMOG000</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS02-09-CTDMOG000</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS02-10-CTDMOG000</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS02-11-CTDMOG000</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS02-12-CTDMOH000</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS02-13-CTDMOH000</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS02-14-CTDMOH000</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS02-15-CTDMOH000</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS02-16-CTDMOH000</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS02-17-CTDMOH000</t>
-  </si>
-  <si>
-    <t>GI03FLMA-RIS02-18-CTDMOH000</t>
-  </si>
-  <si>
     <t>GI03FLMA-FM001-00-ENG000000</t>
   </si>
   <si>
@@ -268,6 +199,63 @@
   </si>
   <si>
     <t>GI03FLMA</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIS01-05-FLORTD000</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIM01-02-ADCPSL003</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RI000-00-VELPTB000</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RI000-00-VELPTB700</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RI000-00-VELPTB400</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RI000-00-VELPTB100</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIM01-02-CTDMOG013</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIM01-02-CTDMOG033</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIM01-02-CTDMOG058</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIM01-02-CTDMOG059</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIM01-02-CTDMOG034</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIM01-02-CTDMOG066</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIM01-02-CTDMOG089</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIM01-02-CTDMOG064</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIM01-02-CTDMOG068</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIM01-02-CTDMOH099</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIM01-02-CTDMOH062</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIM01-02-CTDMOH097</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIS01-04-PHSENF000</t>
   </si>
 </sst>
 </file>
@@ -1221,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1280,7 +1268,7 @@
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>47</v>
@@ -1296,16 +1284,16 @@
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="3" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="I2" s="3">
         <v>2700</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="18">
@@ -1330,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1341,10 +1329,10 @@
     <col min="1" max="1" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="67.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="85.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="2" customWidth="1"/>
     <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
@@ -1372,16 +1360,31 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="A2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="22">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21">
+        <v>1122</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="21">
+        <v>1.8190000000000001E-6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>47</v>
@@ -1393,18 +1396,18 @@
         <v>1122</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="21">
-        <v>1.8190000000000001E-6</v>
+        <v>52</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>47</v>
@@ -1416,18 +1419,15 @@
         <v>1122</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F4" s="21">
-        <v>52</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>40</v>
+        <v>1.17E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>47</v>
@@ -1439,15 +1439,15 @@
         <v>1122</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="21">
-        <v>1.17E-2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>47</v>
@@ -1459,15 +1459,15 @@
         <v>1122</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6" s="21">
-        <v>52</v>
+        <v>9.0300000000000005E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>47</v>
@@ -1479,15 +1479,15 @@
         <v>1122</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" s="21">
-        <v>9.0300000000000005E-2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>47</v>
@@ -1499,15 +1499,18 @@
         <v>1122</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F8" s="21">
-        <v>45</v>
+        <v>124</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>47</v>
@@ -1519,10 +1522,10 @@
         <v>1122</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" s="21">
-        <v>124</v>
+        <v>700</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>42</v>
@@ -1530,7 +1533,7 @@
     </row>
     <row r="10" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>47</v>
@@ -1542,10 +1545,10 @@
         <v>1122</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" s="21">
-        <v>700</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>42</v>
@@ -1553,7 +1556,7 @@
     </row>
     <row r="11" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>47</v>
@@ -1565,10 +1568,10 @@
         <v>1122</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11" s="21">
-        <v>1.0760000000000001</v>
+        <v>3.9E-2</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>42</v>
@@ -1576,7 +1579,7 @@
     </row>
     <row r="12" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>47</v>
@@ -1584,30 +1587,42 @@
       <c r="C12" s="22">
         <v>1</v>
       </c>
-      <c r="D12" s="21">
-        <v>1122</v>
+      <c r="D12" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F12" s="21">
-        <v>3.9E-2</v>
+        <v>17533</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="A13" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="22">
+        <v>1</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="21">
+        <v>2229</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>47</v>
@@ -1616,21 +1631,18 @@
         <v>1</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F14" s="21">
-        <v>17533</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>47</v>
@@ -1639,18 +1651,18 @@
         <v>1</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="21">
-        <v>2229</v>
+        <v>38502</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>47</v>
@@ -1659,18 +1671,18 @@
         <v>1</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F16" s="21">
-        <v>101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>47</v>
@@ -1679,18 +1691,18 @@
         <v>1</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F17" s="21">
-        <v>38502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>47</v>
@@ -1699,18 +1711,21 @@
         <v>1</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F18" s="21">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>47</v>
@@ -1718,19 +1733,22 @@
       <c r="C19" s="22">
         <v>1</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>77</v>
+      <c r="D19" s="21">
+        <v>228</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F19" s="21">
-        <v>0</v>
+        <v>59.766833333333331</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>47</v>
@@ -1738,30 +1756,42 @@
       <c r="C20" s="22">
         <v>1</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>77</v>
+      <c r="D20" s="21">
+        <v>228</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="F20" s="21">
-        <v>35</v>
+        <v>-39.842500000000001</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="A21" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="22">
+        <v>1</v>
+      </c>
+      <c r="D21" s="21">
+        <v>228</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>47</v>
@@ -1770,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="21">
-        <v>228</v>
+        <v>20503</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>6</v>
@@ -1784,7 +1814,7 @@
     </row>
     <row r="23" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>47</v>
@@ -1793,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="21">
-        <v>228</v>
+        <v>20503</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>7</v>
@@ -1801,13 +1831,10 @@
       <c r="F23" s="21">
         <v>-39.842500000000001</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="24" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>47</v>
@@ -1816,26 +1843,38 @@
         <v>1</v>
       </c>
       <c r="D24" s="21">
-        <v>228</v>
+        <v>20503</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>79</v>
+        <v>8</v>
+      </c>
+      <c r="F24" s="21">
+        <v>59.766833333333331</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="A25" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="22">
+        <v>1</v>
+      </c>
+      <c r="D25" s="21">
+        <v>20503</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="21">
+        <v>-39.842500000000001</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>47</v>
@@ -1847,18 +1886,15 @@
         <v>20503</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F26" s="21">
-        <v>59.766833333333331</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>14</v>
+        <v>498000</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>47</v>
@@ -1870,15 +1906,15 @@
         <v>20503</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F27" s="21">
-        <v>-39.842500000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>47</v>
@@ -1890,15 +1926,15 @@
         <v>20503</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F28" s="21">
-        <v>59.766833333333331</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>47</v>
@@ -1910,15 +1946,15 @@
         <v>20503</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F29" s="21">
-        <v>-39.842500000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>47</v>
@@ -1930,15 +1966,15 @@
         <v>20503</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F30" s="21">
-        <v>498000</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>47</v>
@@ -1947,18 +1983,21 @@
         <v>1</v>
       </c>
       <c r="D31" s="21">
-        <v>20503</v>
+        <v>11613</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F31" s="21">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+        <v>1450</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>47</v>
@@ -1967,18 +2006,18 @@
         <v>1</v>
       </c>
       <c r="D32" s="21">
-        <v>20503</v>
+        <v>11613</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F32" s="21">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+        <v>59.766833333333331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>47</v>
@@ -1987,18 +2026,18 @@
         <v>1</v>
       </c>
       <c r="D33" s="21">
-        <v>20503</v>
+        <v>11613</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F33" s="21">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+        <v>-39.842500000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>47</v>
@@ -2007,26 +2046,41 @@
         <v>1</v>
       </c>
       <c r="D34" s="21">
-        <v>20503</v>
+        <v>11613</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F34" s="21">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="22">
+        <v>1</v>
+      </c>
+      <c r="D35" s="21">
+        <v>11533</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="21">
+        <v>1450</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>47</v>
@@ -2035,21 +2089,18 @@
         <v>1</v>
       </c>
       <c r="D36" s="21">
-        <v>11613</v>
+        <v>11533</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F36" s="21">
-        <v>1450</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>14</v>
+        <v>59.766833333333331</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>47</v>
@@ -2058,18 +2109,18 @@
         <v>1</v>
       </c>
       <c r="D37" s="21">
-        <v>11613</v>
+        <v>11533</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F37" s="21">
-        <v>59.766833333333331</v>
+        <v>-39.842500000000001</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>47</v>
@@ -2078,18 +2129,18 @@
         <v>1</v>
       </c>
       <c r="D38" s="21">
-        <v>11613</v>
+        <v>11533</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F38" s="21">
-        <v>-39.842500000000001</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B39" s="21" t="s">
         <v>47</v>
@@ -2098,26 +2149,41 @@
         <v>1</v>
       </c>
       <c r="D39" s="21">
-        <v>11613</v>
+        <v>12308</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F39" s="21">
-        <v>57</v>
+        <v>1450</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
+      <c r="A40" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="22">
+        <v>1</v>
+      </c>
+      <c r="D40" s="21">
+        <v>12308</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="21">
+        <v>59.766833333333331</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>58</v>
+      <c r="A41" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="B41" s="21" t="s">
         <v>47</v>
@@ -2126,21 +2192,18 @@
         <v>1</v>
       </c>
       <c r="D41" s="21">
-        <v>11533</v>
+        <v>12308</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F41" s="21">
-        <v>1450</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>14</v>
+        <v>-39.842500000000001</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>47</v>
@@ -2149,18 +2212,18 @@
         <v>1</v>
       </c>
       <c r="D42" s="21">
-        <v>11533</v>
+        <v>12308</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F42" s="21">
-        <v>59.766833333333331</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>47</v>
@@ -2169,18 +2232,21 @@
         <v>1</v>
       </c>
       <c r="D43" s="21">
-        <v>11533</v>
+        <v>12309</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F43" s="21">
-        <v>-39.842500000000001</v>
+        <v>1450</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>47</v>
@@ -2189,49 +2255,58 @@
         <v>1</v>
       </c>
       <c r="D44" s="21">
-        <v>11533</v>
+        <v>12309</v>
       </c>
       <c r="E44" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="21">
+        <v>59.766833333333331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="22">
+        <v>1</v>
+      </c>
+      <c r="D45" s="21">
+        <v>12309</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="21">
+        <v>-39.842500000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="22">
+        <v>1</v>
+      </c>
+      <c r="D46" s="21">
+        <v>12309</v>
+      </c>
+      <c r="E46" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="22">
-        <v>1</v>
-      </c>
-      <c r="D46" s="21">
-        <v>12308</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>5</v>
-      </c>
       <c r="F46" s="21">
-        <v>1450</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>47</v>
@@ -2240,18 +2315,21 @@
         <v>1</v>
       </c>
       <c r="D47" s="21">
-        <v>12308</v>
+        <v>11534</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47" s="21">
-        <v>59.766833333333331</v>
+        <v>1450</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B48" s="21" t="s">
         <v>47</v>
@@ -2260,18 +2338,18 @@
         <v>1</v>
       </c>
       <c r="D48" s="21">
-        <v>12308</v>
+        <v>11534</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" s="21">
-        <v>-39.842500000000001</v>
+        <v>59.766833333333331</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>47</v>
@@ -2280,26 +2358,38 @@
         <v>1</v>
       </c>
       <c r="D49" s="21">
-        <v>12308</v>
+        <v>11534</v>
       </c>
       <c r="E49" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="21">
+        <v>-39.842500000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="22">
+        <v>1</v>
+      </c>
+      <c r="D50" s="21">
+        <v>11534</v>
+      </c>
+      <c r="E50" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="21">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
+      <c r="F50" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
-        <v>60</v>
+      <c r="A51" s="21" t="s">
+        <v>70</v>
       </c>
       <c r="B51" s="21" t="s">
         <v>47</v>
@@ -2308,7 +2398,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="21">
-        <v>12309</v>
+        <v>11606</v>
       </c>
       <c r="E51" s="21" t="s">
         <v>5</v>
@@ -2322,7 +2412,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>47</v>
@@ -2331,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="21">
-        <v>12309</v>
+        <v>11606</v>
       </c>
       <c r="E52" s="21" t="s">
         <v>6</v>
@@ -2342,7 +2432,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>47</v>
@@ -2351,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="21">
-        <v>12309</v>
+        <v>11606</v>
       </c>
       <c r="E53" s="21" t="s">
         <v>7</v>
@@ -2362,7 +2452,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B54" s="21" t="s">
         <v>47</v>
@@ -2371,26 +2461,41 @@
         <v>1</v>
       </c>
       <c r="D54" s="21">
-        <v>12309</v>
+        <v>11606</v>
       </c>
       <c r="E54" s="21" t="s">
         <v>29</v>
       </c>
       <c r="F54" s="21">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
+      <c r="A55" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="22">
+        <v>1</v>
+      </c>
+      <c r="D55" s="21">
+        <v>12189</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="21">
+        <v>1450</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
-        <v>61</v>
+      <c r="A56" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="B56" s="21" t="s">
         <v>47</v>
@@ -2399,21 +2504,18 @@
         <v>1</v>
       </c>
       <c r="D56" s="21">
-        <v>11534</v>
+        <v>12189</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F56" s="21">
-        <v>1450</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>14</v>
+        <v>59.766833333333331</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>47</v>
@@ -2422,18 +2524,18 @@
         <v>1</v>
       </c>
       <c r="D57" s="21">
-        <v>11534</v>
+        <v>12189</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F57" s="21">
-        <v>59.766833333333331</v>
+        <v>-39.842500000000001</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B58" s="21" t="s">
         <v>47</v>
@@ -2442,18 +2544,18 @@
         <v>1</v>
       </c>
       <c r="D58" s="21">
-        <v>11534</v>
+        <v>12189</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F58" s="21">
-        <v>-39.842500000000001</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B59" s="21" t="s">
         <v>47</v>
@@ -2462,26 +2564,41 @@
         <v>1</v>
       </c>
       <c r="D59" s="21">
-        <v>11534</v>
+        <v>11604</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F59" s="21">
-        <v>54</v>
+        <v>1450</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
+      <c r="A60" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="22">
+        <v>1</v>
+      </c>
+      <c r="D60" s="21">
+        <v>11604</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="21">
+        <v>59.766833333333331</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
-        <v>62</v>
+      <c r="A61" s="21" t="s">
+        <v>72</v>
       </c>
       <c r="B61" s="21" t="s">
         <v>47</v>
@@ -2490,21 +2607,18 @@
         <v>1</v>
       </c>
       <c r="D61" s="21">
-        <v>11606</v>
+        <v>11604</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F61" s="21">
-        <v>1450</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>14</v>
+        <v>-39.842500000000001</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B62" s="21" t="s">
         <v>47</v>
@@ -2513,18 +2627,18 @@
         <v>1</v>
       </c>
       <c r="D62" s="21">
-        <v>11606</v>
+        <v>11604</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F62" s="21">
-        <v>59.766833333333331</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B63" s="21" t="s">
         <v>47</v>
@@ -2533,18 +2647,21 @@
         <v>1</v>
       </c>
       <c r="D63" s="21">
-        <v>11606</v>
+        <v>11608</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F63" s="21">
-        <v>-39.842500000000001</v>
+        <v>1450</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B64" s="21" t="s">
         <v>47</v>
@@ -2553,69 +2670,81 @@
         <v>1</v>
       </c>
       <c r="D64" s="21">
-        <v>11606</v>
+        <v>11608</v>
       </c>
       <c r="E64" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="21">
+        <v>59.766833333333331</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="22">
+        <v>1</v>
+      </c>
+      <c r="D65" s="21">
+        <v>11608</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="21">
+        <v>-39.842500000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" s="22">
+        <v>1</v>
+      </c>
+      <c r="D66" s="21">
+        <v>11608</v>
+      </c>
+      <c r="E66" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F64" s="21">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C66" s="22">
-        <v>1</v>
-      </c>
-      <c r="D66" s="21">
-        <v>12189</v>
-      </c>
-      <c r="E66" s="21" t="s">
+      <c r="F66" s="21">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="23">
+        <v>1</v>
+      </c>
+      <c r="D67" s="24">
+        <v>11599</v>
+      </c>
+      <c r="E67" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F66" s="21">
-        <v>1450</v>
-      </c>
-      <c r="G66" s="2" t="s">
+      <c r="F67" s="24">
+        <v>5076</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C67" s="22">
-        <v>1</v>
-      </c>
-      <c r="D67" s="21">
-        <v>12189</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F67" s="21">
-        <v>59.766833333333331</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B68" s="21" t="s">
         <v>47</v>
@@ -2624,18 +2753,18 @@
         <v>1</v>
       </c>
       <c r="D68" s="21">
-        <v>12189</v>
+        <v>11599</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F68" s="21">
-        <v>-39.842500000000001</v>
+        <v>59.766833333333331</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B69" s="21" t="s">
         <v>47</v>
@@ -2644,26 +2773,38 @@
         <v>1</v>
       </c>
       <c r="D69" s="21">
-        <v>12189</v>
+        <v>11599</v>
       </c>
       <c r="E69" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="21">
+        <v>-39.842500000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="22">
+        <v>1</v>
+      </c>
+      <c r="D70" s="21">
+        <v>11599</v>
+      </c>
+      <c r="E70" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F69" s="21">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
+      <c r="F70" s="21">
+        <v>26</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
-        <v>64</v>
+      <c r="A71" s="21" t="s">
+        <v>75</v>
       </c>
       <c r="B71" s="21" t="s">
         <v>47</v>
@@ -2672,13 +2813,13 @@
         <v>1</v>
       </c>
       <c r="D71" s="21">
-        <v>11604</v>
+        <v>11602</v>
       </c>
       <c r="E71" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="21">
-        <v>1450</v>
+      <c r="F71" s="24">
+        <v>5076</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>14</v>
@@ -2686,7 +2827,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B72" s="21" t="s">
         <v>47</v>
@@ -2695,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="21">
-        <v>11604</v>
+        <v>11602</v>
       </c>
       <c r="E72" s="21" t="s">
         <v>6</v>
@@ -2706,7 +2847,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B73" s="21" t="s">
         <v>47</v>
@@ -2715,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="D73" s="21">
-        <v>11604</v>
+        <v>11602</v>
       </c>
       <c r="E73" s="21" t="s">
         <v>7</v>
@@ -2726,7 +2867,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B74" s="21" t="s">
         <v>47</v>
@@ -2735,26 +2876,41 @@
         <v>1</v>
       </c>
       <c r="D74" s="21">
-        <v>11604</v>
+        <v>11602</v>
       </c>
       <c r="E74" s="21" t="s">
         <v>29</v>
       </c>
       <c r="F74" s="21">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
+      <c r="A75" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75" s="22">
+        <v>1</v>
+      </c>
+      <c r="D75" s="21">
+        <v>11597</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="24">
+        <v>5076</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="22" t="s">
-        <v>65</v>
+      <c r="A76" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="B76" s="21" t="s">
         <v>47</v>
@@ -2763,21 +2919,18 @@
         <v>1</v>
       </c>
       <c r="D76" s="21">
-        <v>11608</v>
+        <v>11597</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F76" s="21">
-        <v>1450</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>14</v>
+        <v>59.766833333333331</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B77" s="21" t="s">
         <v>47</v>
@@ -2786,18 +2939,18 @@
         <v>1</v>
       </c>
       <c r="D77" s="21">
-        <v>11608</v>
+        <v>11597</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F77" s="21">
-        <v>59.766833333333331</v>
+        <v>-39.842500000000001</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B78" s="21" t="s">
         <v>47</v>
@@ -2806,160 +2959,190 @@
         <v>1</v>
       </c>
       <c r="D78" s="21">
-        <v>11608</v>
+        <v>11597</v>
       </c>
       <c r="E78" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="21">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1</v>
+      </c>
+      <c r="D79" s="2">
+        <v>11669</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" s="2">
+        <v>59.766833333333331</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2">
+        <v>11669</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F78" s="21">
+      <c r="F80" s="2">
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B79" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C79" s="22">
-        <v>1</v>
-      </c>
-      <c r="D79" s="21">
-        <v>11608</v>
-      </c>
-      <c r="E79" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F79" s="21">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="21"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-    </row>
-    <row r="81" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B81" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C81" s="23">
-        <v>1</v>
-      </c>
-      <c r="D81" s="24">
-        <v>11599</v>
-      </c>
-      <c r="E81" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="24">
-        <v>5076</v>
-      </c>
-      <c r="G81" s="1" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2">
+        <v>11964</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" s="2">
+        <v>59.766833333333331</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B82" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C82" s="22">
-        <v>1</v>
-      </c>
-      <c r="D82" s="21">
-        <v>11599</v>
-      </c>
-      <c r="E82" s="21" t="s">
+      <c r="A82" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2">
+        <v>11964</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="2">
+        <v>-39.842500000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" s="2">
+        <v>1</v>
+      </c>
+      <c r="D83" s="2">
+        <v>11967</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F82" s="21">
+      <c r="F83" s="2">
         <v>59.766833333333331</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B83" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C83" s="22">
-        <v>1</v>
-      </c>
-      <c r="D83" s="21">
-        <v>11599</v>
-      </c>
-      <c r="E83" s="21" t="s">
+      <c r="G83" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1</v>
+      </c>
+      <c r="D84" s="2">
+        <v>11967</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F83" s="21">
+      <c r="F84" s="2">
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C84" s="22">
-        <v>1</v>
-      </c>
-      <c r="D84" s="21">
-        <v>11599</v>
-      </c>
-      <c r="E84" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F84" s="21">
-        <v>26</v>
-      </c>
-    </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="21"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
+      <c r="A85" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="2">
+        <v>1</v>
+      </c>
+      <c r="D85" s="2">
+        <v>11970</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" s="2">
+        <v>59.766833333333331</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B86" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C86" s="22">
-        <v>1</v>
-      </c>
-      <c r="D86" s="21">
-        <v>11602</v>
-      </c>
-      <c r="E86" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F86" s="24">
-        <v>5076</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>14</v>
+        <v>64</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="2">
+        <v>1</v>
+      </c>
+      <c r="D86" s="2">
+        <v>11970</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="2">
+        <v>-39.842500000000001</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B87" s="21" t="s">
         <v>47</v>
@@ -2967,781 +3150,62 @@
       <c r="C87" s="22">
         <v>1</v>
       </c>
-      <c r="D87" s="21">
-        <v>11602</v>
-      </c>
-      <c r="E87" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F87" s="21">
-        <v>59.766833333333331</v>
+      <c r="D87" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="27" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B88" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C88" s="22">
-        <v>1</v>
-      </c>
-      <c r="D88" s="21">
-        <v>11602</v>
-      </c>
-      <c r="E88" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F88" s="21">
-        <v>-39.842500000000001</v>
-      </c>
+      <c r="A88" s="21"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C89" s="22">
-        <v>1</v>
-      </c>
-      <c r="D89" s="21">
-        <v>11602</v>
-      </c>
-      <c r="E89" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F89" s="21">
-        <v>29</v>
-      </c>
+      <c r="A89" s="21"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="21"/>
       <c r="B90" s="21"/>
-      <c r="C90" s="22"/>
+      <c r="C90" s="21"/>
       <c r="D90" s="21"/>
       <c r="E90" s="21"/>
       <c r="F90" s="21"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B91" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C91" s="22">
-        <v>1</v>
-      </c>
-      <c r="D91" s="21">
-        <v>11597</v>
-      </c>
-      <c r="E91" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="24">
-        <v>5076</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A91" s="21"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B92" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C92" s="22">
-        <v>1</v>
-      </c>
-      <c r="D92" s="21">
-        <v>11597</v>
-      </c>
-      <c r="E92" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F92" s="21">
-        <v>59.766833333333331</v>
-      </c>
+      <c r="A92" s="21"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B93" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C93" s="22">
-        <v>1</v>
-      </c>
-      <c r="D93" s="21">
-        <v>11597</v>
-      </c>
-      <c r="E93" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F93" s="21">
-        <v>-39.842500000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B94" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C94" s="22">
-        <v>1</v>
-      </c>
-      <c r="D94" s="21">
-        <v>11597</v>
-      </c>
-      <c r="E94" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F94" s="21">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="21"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="21"/>
-    </row>
-    <row r="96" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B96" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C96" s="23">
-        <v>1</v>
-      </c>
-      <c r="D96" s="24">
-        <v>12225</v>
-      </c>
-      <c r="E96" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F96" s="24">
-        <v>5076</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B97" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C97" s="22">
-        <v>1</v>
-      </c>
-      <c r="D97" s="21">
-        <v>12225</v>
-      </c>
-      <c r="E97" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F97" s="21">
-        <v>59.766833333333331</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B98" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C98" s="22">
-        <v>1</v>
-      </c>
-      <c r="D98" s="21">
-        <v>12225</v>
-      </c>
-      <c r="E98" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F98" s="21">
-        <v>-39.842500000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C99" s="22">
-        <v>1</v>
-      </c>
-      <c r="D99" s="21">
-        <v>12225</v>
-      </c>
-      <c r="E99" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F99" s="21">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="21"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="21"/>
-      <c r="E100" s="21"/>
-      <c r="F100" s="21"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B101" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C101" s="22">
-        <v>1</v>
-      </c>
-      <c r="D101" s="21">
-        <v>12222</v>
-      </c>
-      <c r="E101" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="24">
-        <v>5076</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B102" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C102" s="22">
-        <v>1</v>
-      </c>
-      <c r="D102" s="21">
-        <v>12222</v>
-      </c>
-      <c r="E102" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F102" s="21">
-        <v>59.766833333333331</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B103" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C103" s="22">
-        <v>1</v>
-      </c>
-      <c r="D103" s="21">
-        <v>12222</v>
-      </c>
-      <c r="E103" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F103" s="21">
-        <v>-39.842500000000001</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B104" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C104" s="22">
-        <v>1</v>
-      </c>
-      <c r="D104" s="21">
-        <v>12222</v>
-      </c>
-      <c r="E104" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F104" s="21">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="21"/>
-      <c r="B105" s="21"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="21"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B106" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C106" s="22">
-        <v>1</v>
-      </c>
-      <c r="D106" s="21">
-        <v>12389</v>
-      </c>
-      <c r="E106" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F106" s="24">
-        <v>5076</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B107" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C107" s="22">
-        <v>1</v>
-      </c>
-      <c r="D107" s="21">
-        <v>12389</v>
-      </c>
-      <c r="E107" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F107" s="21">
-        <v>59.766833333333331</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B108" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C108" s="22">
-        <v>1</v>
-      </c>
-      <c r="D108" s="21">
-        <v>12389</v>
-      </c>
-      <c r="E108" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F108" s="21">
-        <v>-39.842500000000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B109" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C109" s="22">
-        <v>1</v>
-      </c>
-      <c r="D109" s="21">
-        <v>12389</v>
-      </c>
-      <c r="E109" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F109" s="21">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="21"/>
-      <c r="B110" s="21"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="21"/>
-      <c r="F110" s="21"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B111" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C111" s="22">
-        <v>1</v>
-      </c>
-      <c r="D111" s="21">
-        <v>12227</v>
-      </c>
-      <c r="E111" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F111" s="24">
-        <v>5076</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B112" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C112" s="22">
-        <v>1</v>
-      </c>
-      <c r="D112" s="21">
-        <v>12227</v>
-      </c>
-      <c r="E112" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F112" s="21">
-        <v>59.766833333333331</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B113" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C113" s="22">
-        <v>1</v>
-      </c>
-      <c r="D113" s="21">
-        <v>12227</v>
-      </c>
-      <c r="E113" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F113" s="21">
-        <v>-39.842500000000001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B114" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C114" s="22">
-        <v>1</v>
-      </c>
-      <c r="D114" s="21">
-        <v>12227</v>
-      </c>
-      <c r="E114" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F114" s="21">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C116" s="2">
-        <v>1</v>
-      </c>
-      <c r="D116" s="2">
-        <v>11669</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F116" s="2">
-        <v>59.766833333333331</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C117" s="2">
-        <v>1</v>
-      </c>
-      <c r="D117" s="2">
-        <v>11669</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" s="2">
-        <v>-39.842500000000001</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="21"/>
-      <c r="B118" s="21"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="21"/>
-      <c r="E118" s="21"/>
-      <c r="F118" s="21"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C119" s="2">
-        <v>1</v>
-      </c>
-      <c r="D119" s="2">
-        <v>11964</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F119" s="2">
-        <v>59.766833333333331</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C120" s="2">
-        <v>1</v>
-      </c>
-      <c r="D120" s="2">
-        <v>11964</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F120" s="2">
-        <v>-39.842500000000001</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="21"/>
-      <c r="B121" s="21"/>
-      <c r="C121" s="22"/>
-      <c r="D121" s="21"/>
-      <c r="E121" s="21"/>
-      <c r="F121" s="21"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C122" s="2">
-        <v>1</v>
-      </c>
-      <c r="D122" s="2">
-        <v>11967</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F122" s="2">
-        <v>59.766833333333331</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C123" s="2">
-        <v>1</v>
-      </c>
-      <c r="D123" s="2">
-        <v>11967</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F123" s="2">
-        <v>-39.842500000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="21"/>
-      <c r="B124" s="21"/>
-      <c r="C124" s="22"/>
-      <c r="D124" s="21"/>
-      <c r="E124" s="21"/>
-      <c r="F124" s="21"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C125" s="2">
-        <v>1</v>
-      </c>
-      <c r="D125" s="2">
-        <v>11970</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F125" s="2">
-        <v>59.766833333333331</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C126" s="2">
-        <v>1</v>
-      </c>
-      <c r="D126" s="2">
-        <v>11970</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F126" s="2">
-        <v>-39.842500000000001</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="21"/>
-      <c r="B127" s="21"/>
-      <c r="C127" s="22"/>
-      <c r="D127" s="21"/>
-      <c r="E127" s="21"/>
-      <c r="F127" s="21"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B128" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C128" s="22">
-        <v>1</v>
-      </c>
-      <c r="D128" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E128" s="21"/>
-      <c r="F128" s="21"/>
-      <c r="G128" s="27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="21"/>
-      <c r="B129" s="21"/>
-      <c r="C129" s="22"/>
-      <c r="D129" s="21"/>
-      <c r="E129" s="21"/>
-      <c r="F129" s="21"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="21"/>
-      <c r="B130" s="21"/>
-      <c r="C130" s="21"/>
-      <c r="D130" s="21"/>
-      <c r="E130" s="21"/>
-      <c r="F130" s="21"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="21"/>
-      <c r="B131" s="21"/>
-      <c r="C131" s="21"/>
-      <c r="D131" s="21"/>
-      <c r="E131" s="21"/>
-      <c r="F131" s="21"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="21"/>
-      <c r="B132" s="21"/>
-      <c r="C132" s="21"/>
-      <c r="D132" s="21"/>
-      <c r="E132" s="21"/>
-      <c r="F132" s="21"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="21"/>
-      <c r="B133" s="21"/>
-      <c r="C133" s="21"/>
-      <c r="D133" s="21"/>
-      <c r="E133" s="21"/>
-      <c r="F133" s="21"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="21"/>
-      <c r="B134" s="21"/>
-      <c r="C134" s="21"/>
-      <c r="D134" s="21"/>
-      <c r="E134" s="21"/>
-      <c r="F134" s="21"/>
+      <c r="A93" s="21"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GI03FLMA/Omaha_Cal_Info_GI03FLMA_00001.xlsx
+++ b/GI03FLMA/Omaha_Cal_Info_GI03FLMA_00001.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="11760"/>
+    <workbookView xWindow="1340" yWindow="1180" windowWidth="24780" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -17,12 +17,17 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="101">
   <si>
     <t>Ref Des</t>
   </si>
@@ -174,9 +179,6 @@
     <t>Requires TEMPWAT, PRESWAT, and PRACSAL from GI03FLMA-RIS02-03-CTDMOG000</t>
   </si>
   <si>
-    <t>GI03FLMA-FM001-00-ENG000000</t>
-  </si>
-  <si>
     <t>59° 46.01' N</t>
   </si>
   <si>
@@ -189,15 +191,9 @@
     <t>P0079</t>
   </si>
   <si>
-    <t>GI03FLMA-00001-ENG</t>
-  </si>
-  <si>
     <t>[3.131616E-03,1.299180E-04,2.613286E-06,2.333967E+02,-3.194550E-01,-5.527634E+01,4.555954E+00]</t>
   </si>
   <si>
-    <t>The serial number used here is bogus, pending identification of the real serial number.</t>
-  </si>
-  <si>
     <t>GI03FLMA</t>
   </si>
   <si>
@@ -256,6 +252,84 @@
   </si>
   <si>
     <t>GI03FLMA-RIS01-04-PHSENF000</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIM01-01-SIOENG000</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RIS01-01-SIOENG000</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RI000-00-CTDMOH000</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RI000-00-CTDMOH700</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RI000-00-CTDMOH400</t>
+  </si>
+  <si>
+    <t>GI03FLMA-RI000-00-CTDMOH100</t>
+  </si>
+  <si>
+    <t>37-12225</t>
+  </si>
+  <si>
+    <t>37-12222</t>
+  </si>
+  <si>
+    <t>37-12389</t>
+  </si>
+  <si>
+    <t>37-12227</t>
+  </si>
+  <si>
+    <t>37-11613</t>
+  </si>
+  <si>
+    <t>37-11533</t>
+  </si>
+  <si>
+    <t>37-11534</t>
+  </si>
+  <si>
+    <t>37-11606</t>
+  </si>
+  <si>
+    <t>37-11604</t>
+  </si>
+  <si>
+    <t>37-11608</t>
+  </si>
+  <si>
+    <t>37-11599</t>
+  </si>
+  <si>
+    <t>37-11602</t>
+  </si>
+  <si>
+    <t>37-11597</t>
+  </si>
+  <si>
+    <t>37-12308</t>
+  </si>
+  <si>
+    <t>37-12309</t>
+  </si>
+  <si>
+    <t>37-12189</t>
+  </si>
+  <si>
+    <t>AQD 11669</t>
+  </si>
+  <si>
+    <t>AQD 11964</t>
+  </si>
+  <si>
+    <t>AQD 11967</t>
+  </si>
+  <si>
+    <t>AQD 11970</t>
   </si>
 </sst>
 </file>
@@ -263,12 +337,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +505,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -505,16 +601,16 @@
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,7 +628,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="132">
+  <cellStyleXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -596,14 +692,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -665,8 +761,76 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -692,22 +856,22 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -743,20 +907,32 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="132">
+  <cellStyles count="200">
     <cellStyle name="Comma 2" xfId="63"/>
     <cellStyle name="Comma 2 2" xfId="64"/>
     <cellStyle name="Comma 2 2 2" xfId="65"/>
@@ -767,6 +943,74 @@
     <cellStyle name="Currency 2 3" xfId="70"/>
     <cellStyle name="Excel Built-in Normal" xfId="6"/>
     <cellStyle name="Excel Built-in Normal 2" xfId="71"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink 2" xfId="9"/>
     <cellStyle name="Hyperlink 2 2" xfId="72"/>
     <cellStyle name="Hyperlink 2 3" xfId="73"/>
@@ -904,7 +1148,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -1209,29 +1453,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="4"/>
+    <col min="7" max="7" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="28">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1266,9 +1510,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>58</v>
+    <row r="2" spans="1:13" s="15" customFormat="1">
+      <c r="A2" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>47</v>
@@ -1282,18 +1526,20 @@
       <c r="E2" s="19">
         <v>0.84097222222222223</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="29">
+        <v>42234</v>
+      </c>
       <c r="G2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="I2" s="3">
         <v>2700</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="18">
@@ -1305,38 +1551,43 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="15" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="15" customFormat="1">
       <c r="D3" s="25"/>
       <c r="E3" s="26"/>
       <c r="F3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A68" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="85.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38" style="2" customWidth="1"/>
     <col min="7" max="7" width="12" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="2"/>
+    <col min="8" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="11" customFormat="1">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1359,9 +1610,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>47</v>
@@ -1382,9 +1633,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>47</v>
@@ -1405,9 +1656,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>47</v>
@@ -1425,9 +1676,9 @@
         <v>1.17E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>47</v>
@@ -1445,9 +1696,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>47</v>
@@ -1465,9 +1716,9 @@
         <v>9.0300000000000005E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>47</v>
@@ -1485,9 +1736,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>47</v>
@@ -1508,9 +1759,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>47</v>
@@ -1531,9 +1782,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>47</v>
@@ -1554,9 +1805,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>47</v>
@@ -1577,9 +1828,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>47</v>
@@ -1588,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>18</v>
@@ -1600,9 +1851,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>47</v>
@@ -1611,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>19</v>
@@ -1620,9 +1871,9 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>47</v>
@@ -1631,7 +1882,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>20</v>
@@ -1640,9 +1891,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>47</v>
@@ -1651,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>21</v>
@@ -1660,9 +1911,9 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>47</v>
@@ -1671,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>22</v>
@@ -1680,9 +1931,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>47</v>
@@ -1691,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>23</v>
@@ -1700,9 +1951,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>47</v>
@@ -1711,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>39</v>
@@ -1723,7 +1974,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="21" t="s">
         <v>48</v>
       </c>
@@ -1746,7 +1997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="21" t="s">
         <v>48</v>
       </c>
@@ -1769,7 +2020,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="21" t="s">
         <v>48</v>
       </c>
@@ -1786,12 +2037,12 @@
         <v>15</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>47</v>
@@ -1812,9 +2063,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>47</v>
@@ -1832,9 +2083,9 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>47</v>
@@ -1852,9 +2103,9 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>47</v>
@@ -1872,9 +2123,9 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>47</v>
@@ -1892,9 +2143,9 @@
         <v>498000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>47</v>
@@ -1912,9 +2163,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>47</v>
@@ -1932,9 +2183,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>47</v>
@@ -1952,9 +2203,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>47</v>
@@ -1972,9 +2223,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>47</v>
@@ -1982,8 +2233,8 @@
       <c r="C31" s="22">
         <v>1</v>
       </c>
-      <c r="D31" s="21">
-        <v>11613</v>
+      <c r="D31" s="30" t="s">
+        <v>85</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>5</v>
@@ -1995,9 +2246,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>47</v>
@@ -2005,8 +2256,8 @@
       <c r="C32" s="22">
         <v>1</v>
       </c>
-      <c r="D32" s="21">
-        <v>11613</v>
+      <c r="D32" s="30" t="s">
+        <v>85</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>6</v>
@@ -2015,9 +2266,9 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>47</v>
@@ -2025,8 +2276,8 @@
       <c r="C33" s="22">
         <v>1</v>
       </c>
-      <c r="D33" s="21">
-        <v>11613</v>
+      <c r="D33" s="30" t="s">
+        <v>85</v>
       </c>
       <c r="E33" s="21" t="s">
         <v>7</v>
@@ -2035,9 +2286,9 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>47</v>
@@ -2045,19 +2296,19 @@
       <c r="C34" s="22">
         <v>1</v>
       </c>
-      <c r="D34" s="21">
-        <v>11613</v>
+      <c r="D34" s="30" t="s">
+        <v>85</v>
       </c>
       <c r="E34" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="21">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>47</v>
@@ -2065,8 +2316,8 @@
       <c r="C35" s="22">
         <v>1</v>
       </c>
-      <c r="D35" s="21">
-        <v>11533</v>
+      <c r="D35" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="E35" s="21" t="s">
         <v>5</v>
@@ -2078,9 +2329,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>47</v>
@@ -2088,8 +2339,8 @@
       <c r="C36" s="22">
         <v>1</v>
       </c>
-      <c r="D36" s="21">
-        <v>11533</v>
+      <c r="D36" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="E36" s="21" t="s">
         <v>6</v>
@@ -2098,9 +2349,9 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>47</v>
@@ -2108,8 +2359,8 @@
       <c r="C37" s="22">
         <v>1</v>
       </c>
-      <c r="D37" s="21">
-        <v>11533</v>
+      <c r="D37" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="E37" s="21" t="s">
         <v>7</v>
@@ -2118,9 +2369,9 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>47</v>
@@ -2128,19 +2379,19 @@
       <c r="C38" s="22">
         <v>1</v>
       </c>
-      <c r="D38" s="21">
-        <v>11533</v>
+      <c r="D38" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="E38" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F38" s="21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F38" s="30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B39" s="21" t="s">
         <v>47</v>
@@ -2148,8 +2399,8 @@
       <c r="C39" s="22">
         <v>1</v>
       </c>
-      <c r="D39" s="21">
-        <v>12308</v>
+      <c r="D39" s="30" t="s">
+        <v>94</v>
       </c>
       <c r="E39" s="21" t="s">
         <v>5</v>
@@ -2161,9 +2412,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>47</v>
@@ -2171,8 +2422,8 @@
       <c r="C40" s="22">
         <v>1</v>
       </c>
-      <c r="D40" s="21">
-        <v>12308</v>
+      <c r="D40" s="30" t="s">
+        <v>94</v>
       </c>
       <c r="E40" s="21" t="s">
         <v>6</v>
@@ -2181,9 +2432,9 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B41" s="21" t="s">
         <v>47</v>
@@ -2191,8 +2442,8 @@
       <c r="C41" s="22">
         <v>1</v>
       </c>
-      <c r="D41" s="21">
-        <v>12308</v>
+      <c r="D41" s="30" t="s">
+        <v>94</v>
       </c>
       <c r="E41" s="21" t="s">
         <v>7</v>
@@ -2201,9 +2452,9 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>47</v>
@@ -2211,19 +2462,19 @@
       <c r="C42" s="22">
         <v>1</v>
       </c>
-      <c r="D42" s="21">
-        <v>12308</v>
+      <c r="D42" s="30" t="s">
+        <v>94</v>
       </c>
       <c r="E42" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="21">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F42" s="30">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>47</v>
@@ -2231,8 +2482,8 @@
       <c r="C43" s="22">
         <v>1</v>
       </c>
-      <c r="D43" s="21">
-        <v>12309</v>
+      <c r="D43" s="30" t="s">
+        <v>95</v>
       </c>
       <c r="E43" s="21" t="s">
         <v>5</v>
@@ -2244,9 +2495,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>47</v>
@@ -2254,8 +2505,8 @@
       <c r="C44" s="22">
         <v>1</v>
       </c>
-      <c r="D44" s="21">
-        <v>12309</v>
+      <c r="D44" s="30" t="s">
+        <v>95</v>
       </c>
       <c r="E44" s="21" t="s">
         <v>6</v>
@@ -2264,9 +2515,9 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>47</v>
@@ -2274,8 +2525,8 @@
       <c r="C45" s="22">
         <v>1</v>
       </c>
-      <c r="D45" s="21">
-        <v>12309</v>
+      <c r="D45" s="30" t="s">
+        <v>95</v>
       </c>
       <c r="E45" s="21" t="s">
         <v>7</v>
@@ -2284,9 +2535,9 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>47</v>
@@ -2294,19 +2545,19 @@
       <c r="C46" s="22">
         <v>1</v>
       </c>
-      <c r="D46" s="21">
-        <v>12309</v>
+      <c r="D46" s="30" t="s">
+        <v>95</v>
       </c>
       <c r="E46" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F46" s="21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F46" s="30">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>47</v>
@@ -2314,8 +2565,8 @@
       <c r="C47" s="22">
         <v>1</v>
       </c>
-      <c r="D47" s="21">
-        <v>11534</v>
+      <c r="D47" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="E47" s="21" t="s">
         <v>5</v>
@@ -2327,9 +2578,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B48" s="21" t="s">
         <v>47</v>
@@ -2337,8 +2588,8 @@
       <c r="C48" s="22">
         <v>1</v>
       </c>
-      <c r="D48" s="21">
-        <v>11534</v>
+      <c r="D48" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="E48" s="21" t="s">
         <v>6</v>
@@ -2347,9 +2598,9 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>47</v>
@@ -2357,8 +2608,8 @@
       <c r="C49" s="22">
         <v>1</v>
       </c>
-      <c r="D49" s="21">
-        <v>11534</v>
+      <c r="D49" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="E49" s="21" t="s">
         <v>7</v>
@@ -2367,9 +2618,9 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B50" s="21" t="s">
         <v>47</v>
@@ -2377,19 +2628,19 @@
       <c r="C50" s="22">
         <v>1</v>
       </c>
-      <c r="D50" s="21">
-        <v>11534</v>
+      <c r="D50" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="E50" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F50" s="21">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F50" s="30">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B51" s="21" t="s">
         <v>47</v>
@@ -2397,8 +2648,8 @@
       <c r="C51" s="22">
         <v>1</v>
       </c>
-      <c r="D51" s="21">
-        <v>11606</v>
+      <c r="D51" s="30" t="s">
+        <v>88</v>
       </c>
       <c r="E51" s="21" t="s">
         <v>5</v>
@@ -2410,9 +2661,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>47</v>
@@ -2420,8 +2671,8 @@
       <c r="C52" s="22">
         <v>1</v>
       </c>
-      <c r="D52" s="21">
-        <v>11606</v>
+      <c r="D52" s="30" t="s">
+        <v>88</v>
       </c>
       <c r="E52" s="21" t="s">
         <v>6</v>
@@ -2430,9 +2681,9 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>47</v>
@@ -2440,8 +2691,8 @@
       <c r="C53" s="22">
         <v>1</v>
       </c>
-      <c r="D53" s="21">
-        <v>11606</v>
+      <c r="D53" s="30" t="s">
+        <v>88</v>
       </c>
       <c r="E53" s="21" t="s">
         <v>7</v>
@@ -2450,9 +2701,9 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B54" s="21" t="s">
         <v>47</v>
@@ -2460,19 +2711,19 @@
       <c r="C54" s="22">
         <v>1</v>
       </c>
-      <c r="D54" s="21">
-        <v>11606</v>
+      <c r="D54" s="30" t="s">
+        <v>88</v>
       </c>
       <c r="E54" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F54" s="21">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F54" s="30">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B55" s="21" t="s">
         <v>47</v>
@@ -2480,8 +2731,8 @@
       <c r="C55" s="22">
         <v>1</v>
       </c>
-      <c r="D55" s="21">
-        <v>12189</v>
+      <c r="D55" s="30" t="s">
+        <v>96</v>
       </c>
       <c r="E55" s="21" t="s">
         <v>5</v>
@@ -2493,9 +2744,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B56" s="21" t="s">
         <v>47</v>
@@ -2503,8 +2754,8 @@
       <c r="C56" s="22">
         <v>1</v>
       </c>
-      <c r="D56" s="21">
-        <v>12189</v>
+      <c r="D56" s="30" t="s">
+        <v>96</v>
       </c>
       <c r="E56" s="21" t="s">
         <v>6</v>
@@ -2513,9 +2764,9 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>47</v>
@@ -2523,8 +2774,8 @@
       <c r="C57" s="22">
         <v>1</v>
       </c>
-      <c r="D57" s="21">
-        <v>12189</v>
+      <c r="D57" s="30" t="s">
+        <v>96</v>
       </c>
       <c r="E57" s="21" t="s">
         <v>7</v>
@@ -2533,9 +2784,9 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B58" s="21" t="s">
         <v>47</v>
@@ -2543,19 +2794,19 @@
       <c r="C58" s="22">
         <v>1</v>
       </c>
-      <c r="D58" s="21">
-        <v>12189</v>
+      <c r="D58" s="30" t="s">
+        <v>96</v>
       </c>
       <c r="E58" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F58" s="21">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F58" s="30">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B59" s="21" t="s">
         <v>47</v>
@@ -2563,8 +2814,8 @@
       <c r="C59" s="22">
         <v>1</v>
       </c>
-      <c r="D59" s="21">
-        <v>11604</v>
+      <c r="D59" s="30" t="s">
+        <v>89</v>
       </c>
       <c r="E59" s="21" t="s">
         <v>5</v>
@@ -2576,9 +2827,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B60" s="21" t="s">
         <v>47</v>
@@ -2586,8 +2837,8 @@
       <c r="C60" s="22">
         <v>1</v>
       </c>
-      <c r="D60" s="21">
-        <v>11604</v>
+      <c r="D60" s="30" t="s">
+        <v>89</v>
       </c>
       <c r="E60" s="21" t="s">
         <v>6</v>
@@ -2596,9 +2847,9 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B61" s="21" t="s">
         <v>47</v>
@@ -2606,8 +2857,8 @@
       <c r="C61" s="22">
         <v>1</v>
       </c>
-      <c r="D61" s="21">
-        <v>11604</v>
+      <c r="D61" s="30" t="s">
+        <v>89</v>
       </c>
       <c r="E61" s="21" t="s">
         <v>7</v>
@@ -2616,9 +2867,9 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B62" s="21" t="s">
         <v>47</v>
@@ -2626,19 +2877,19 @@
       <c r="C62" s="22">
         <v>1</v>
       </c>
-      <c r="D62" s="21">
-        <v>11604</v>
+      <c r="D62" s="30" t="s">
+        <v>89</v>
       </c>
       <c r="E62" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F62" s="21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F62" s="30">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B63" s="21" t="s">
         <v>47</v>
@@ -2646,8 +2897,8 @@
       <c r="C63" s="22">
         <v>1</v>
       </c>
-      <c r="D63" s="21">
-        <v>11608</v>
+      <c r="D63" s="30" t="s">
+        <v>90</v>
       </c>
       <c r="E63" s="21" t="s">
         <v>5</v>
@@ -2659,9 +2910,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B64" s="21" t="s">
         <v>47</v>
@@ -2669,8 +2920,8 @@
       <c r="C64" s="22">
         <v>1</v>
       </c>
-      <c r="D64" s="21">
-        <v>11608</v>
+      <c r="D64" s="30" t="s">
+        <v>90</v>
       </c>
       <c r="E64" s="21" t="s">
         <v>6</v>
@@ -2679,9 +2930,9 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B65" s="21" t="s">
         <v>47</v>
@@ -2689,8 +2940,8 @@
       <c r="C65" s="22">
         <v>1</v>
       </c>
-      <c r="D65" s="21">
-        <v>11608</v>
+      <c r="D65" s="30" t="s">
+        <v>90</v>
       </c>
       <c r="E65" s="21" t="s">
         <v>7</v>
@@ -2699,9 +2950,9 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B66" s="21" t="s">
         <v>47</v>
@@ -2709,19 +2960,19 @@
       <c r="C66" s="22">
         <v>1</v>
       </c>
-      <c r="D66" s="21">
-        <v>11608</v>
+      <c r="D66" s="30" t="s">
+        <v>90</v>
       </c>
       <c r="E66" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F66" s="21">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F66" s="30">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="1" customFormat="1">
       <c r="A67" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B67" s="24" t="s">
         <v>47</v>
@@ -2729,8 +2980,8 @@
       <c r="C67" s="23">
         <v>1</v>
       </c>
-      <c r="D67" s="24">
-        <v>11599</v>
+      <c r="D67" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="E67" s="24" t="s">
         <v>5</v>
@@ -2742,9 +2993,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B68" s="21" t="s">
         <v>47</v>
@@ -2752,8 +3003,8 @@
       <c r="C68" s="22">
         <v>1</v>
       </c>
-      <c r="D68" s="21">
-        <v>11599</v>
+      <c r="D68" s="30" t="s">
+        <v>91</v>
       </c>
       <c r="E68" s="21" t="s">
         <v>6</v>
@@ -2762,9 +3013,9 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B69" s="21" t="s">
         <v>47</v>
@@ -2772,8 +3023,8 @@
       <c r="C69" s="22">
         <v>1</v>
       </c>
-      <c r="D69" s="21">
-        <v>11599</v>
+      <c r="D69" s="30" t="s">
+        <v>91</v>
       </c>
       <c r="E69" s="21" t="s">
         <v>7</v>
@@ -2782,9 +3033,9 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B70" s="21" t="s">
         <v>47</v>
@@ -2792,19 +3043,19 @@
       <c r="C70" s="22">
         <v>1</v>
       </c>
-      <c r="D70" s="21">
-        <v>11599</v>
+      <c r="D70" s="30" t="s">
+        <v>91</v>
       </c>
       <c r="E70" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F70" s="21">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F70" s="30">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B71" s="21" t="s">
         <v>47</v>
@@ -2812,8 +3063,8 @@
       <c r="C71" s="22">
         <v>1</v>
       </c>
-      <c r="D71" s="21">
-        <v>11602</v>
+      <c r="D71" s="30" t="s">
+        <v>92</v>
       </c>
       <c r="E71" s="21" t="s">
         <v>5</v>
@@ -2825,9 +3076,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B72" s="21" t="s">
         <v>47</v>
@@ -2835,8 +3086,8 @@
       <c r="C72" s="22">
         <v>1</v>
       </c>
-      <c r="D72" s="21">
-        <v>11602</v>
+      <c r="D72" s="30" t="s">
+        <v>92</v>
       </c>
       <c r="E72" s="21" t="s">
         <v>6</v>
@@ -2845,9 +3096,9 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B73" s="21" t="s">
         <v>47</v>
@@ -2855,8 +3106,8 @@
       <c r="C73" s="22">
         <v>1</v>
       </c>
-      <c r="D73" s="21">
-        <v>11602</v>
+      <c r="D73" s="30" t="s">
+        <v>92</v>
       </c>
       <c r="E73" s="21" t="s">
         <v>7</v>
@@ -2865,9 +3116,9 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B74" s="21" t="s">
         <v>47</v>
@@ -2875,19 +3126,19 @@
       <c r="C74" s="22">
         <v>1</v>
       </c>
-      <c r="D74" s="21">
-        <v>11602</v>
+      <c r="D74" s="30" t="s">
+        <v>92</v>
       </c>
       <c r="E74" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F74" s="21">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F74" s="30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B75" s="21" t="s">
         <v>47</v>
@@ -2895,8 +3146,8 @@
       <c r="C75" s="22">
         <v>1</v>
       </c>
-      <c r="D75" s="21">
-        <v>11597</v>
+      <c r="D75" s="30" t="s">
+        <v>93</v>
       </c>
       <c r="E75" s="21" t="s">
         <v>5</v>
@@ -2908,9 +3159,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B76" s="21" t="s">
         <v>47</v>
@@ -2918,8 +3169,8 @@
       <c r="C76" s="22">
         <v>1</v>
       </c>
-      <c r="D76" s="21">
-        <v>11597</v>
+      <c r="D76" s="30" t="s">
+        <v>93</v>
       </c>
       <c r="E76" s="21" t="s">
         <v>6</v>
@@ -2928,9 +3179,9 @@
         <v>59.766833333333331</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B77" s="21" t="s">
         <v>47</v>
@@ -2938,8 +3189,8 @@
       <c r="C77" s="22">
         <v>1</v>
       </c>
-      <c r="D77" s="21">
-        <v>11597</v>
+      <c r="D77" s="30" t="s">
+        <v>93</v>
       </c>
       <c r="E77" s="21" t="s">
         <v>7</v>
@@ -2948,9 +3199,9 @@
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B78" s="21" t="s">
         <v>47</v>
@@ -2958,257 +3209,508 @@
       <c r="C78" s="22">
         <v>1</v>
       </c>
-      <c r="D78" s="21">
-        <v>11597</v>
+      <c r="D78" s="30" t="s">
+        <v>93</v>
       </c>
       <c r="E78" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F78" s="21">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="22" t="s">
+      <c r="F78" s="30">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="32" customFormat="1">
+      <c r="A79" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" s="31">
+        <v>1</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="30">
+        <v>5076</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="32" customFormat="1">
+      <c r="A80" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" s="31">
+        <v>1</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E80" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="30">
+        <v>59.766833333333331</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="32" customFormat="1">
+      <c r="A81" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81" s="31">
+        <v>1</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="30">
+        <v>-39.842500000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="32" customFormat="1">
+      <c r="A82" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="31">
+        <v>1</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" s="30">
+        <v>5076</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="32" customFormat="1">
+      <c r="A83" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" s="31">
+        <v>1</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" s="30">
+        <v>59.766833333333331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="32" customFormat="1">
+      <c r="A84" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" s="31">
+        <v>1</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="30">
+        <v>-39.842500000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="32" customFormat="1">
+      <c r="A85" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B85" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="31">
+        <v>1</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E85" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" s="30">
+        <v>5076</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="32" customFormat="1">
+      <c r="A86" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="31">
+        <v>1</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E86" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" s="30">
+        <v>59.766833333333331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="32" customFormat="1">
+      <c r="A87" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C87" s="31">
+        <v>1</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" s="30">
+        <v>-39.842500000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="32" customFormat="1">
+      <c r="A88" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C88" s="31">
+        <v>1</v>
+      </c>
+      <c r="D88" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" s="30">
+        <v>5076</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="32" customFormat="1">
+      <c r="A89" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B89" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89" s="31">
+        <v>1</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" s="30">
+        <v>59.766833333333331</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="32" customFormat="1">
+      <c r="A90" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B90" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" s="31">
+        <v>1</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="30">
+        <v>-39.842500000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" s="2">
+        <v>1</v>
+      </c>
+      <c r="D91" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" s="2">
+        <v>59.766833333333331</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92" s="2">
+        <v>1</v>
+      </c>
+      <c r="D92" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" s="2">
+        <v>-39.842500000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93" s="2">
+        <v>1</v>
+      </c>
+      <c r="D93" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" s="2">
+        <v>59.766833333333331</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1</v>
+      </c>
+      <c r="D94" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" s="2">
+        <v>-39.842500000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C95" s="2">
+        <v>1</v>
+      </c>
+      <c r="D95" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" s="2">
+        <v>59.766833333333331</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96" s="2">
+        <v>1</v>
+      </c>
+      <c r="D96" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" s="2">
+        <v>-39.842500000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C79" s="2">
-        <v>1</v>
-      </c>
-      <c r="D79" s="2">
-        <v>11669</v>
-      </c>
-      <c r="E79" s="2" t="s">
+      <c r="B97" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C97" s="2">
+        <v>1</v>
+      </c>
+      <c r="D97" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F97" s="2">
         <v>59.766833333333331</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G97" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
+    <row r="98" spans="1:7">
+      <c r="A98" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C80" s="2">
-        <v>1</v>
-      </c>
-      <c r="D80" s="2">
-        <v>11669</v>
-      </c>
-      <c r="E80" s="2" t="s">
+      <c r="B98" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1</v>
+      </c>
+      <c r="D98" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F98" s="2">
         <v>-39.842500000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C81" s="2">
-        <v>1</v>
-      </c>
-      <c r="D81" s="2">
-        <v>11964</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F81" s="2">
-        <v>59.766833333333331</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C82" s="2">
-        <v>1</v>
-      </c>
-      <c r="D82" s="2">
-        <v>11964</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82" s="2">
-        <v>-39.842500000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C83" s="2">
-        <v>1</v>
-      </c>
-      <c r="D83" s="2">
-        <v>11967</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" s="2">
-        <v>59.766833333333331</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C84" s="2">
-        <v>1</v>
-      </c>
-      <c r="D84" s="2">
-        <v>11967</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F84" s="2">
-        <v>-39.842500000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C85" s="2">
-        <v>1</v>
-      </c>
-      <c r="D85" s="2">
-        <v>11970</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F85" s="2">
-        <v>59.766833333333331</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C86" s="2">
-        <v>1</v>
-      </c>
-      <c r="D86" s="2">
-        <v>11970</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86" s="2">
-        <v>-39.842500000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B87" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C87" s="22">
-        <v>1</v>
-      </c>
-      <c r="D87" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="21"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="21"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="21"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="21"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="21"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="21"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="21"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="21"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="21"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21"/>
+    <row r="99" spans="1:7">
+      <c r="A99" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C99" s="22">
+        <v>1</v>
+      </c>
+      <c r="D99" s="30">
+        <v>13286</v>
+      </c>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="27"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B100" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C100" s="31">
+        <v>1</v>
+      </c>
+      <c r="D100" s="30">
+        <v>13280</v>
+      </c>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="21"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="21"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="21"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="21"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="21"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>